--- a/Documentatie/Agenda's/agenda week 2.xlsx
+++ b/Documentatie/Agenda's/agenda week 2.xlsx
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>wie</t>
   </si>
@@ -186,6 +186,9 @@
   </si>
   <si>
     <t>Tijd: 09.00</t>
+  </si>
+  <si>
+    <t>Hernieuwde opdracht aftekenen</t>
   </si>
 </sst>
 </file>
@@ -893,8 +896,8 @@
   </sheetPr>
   <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="168" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:D5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="168" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1215,7 +1218,9 @@
       <c r="E26" s="4">
         <v>2</v>
       </c>
-      <c r="F26" s="21"/>
+      <c r="F26" s="21" t="s">
+        <v>26</v>
+      </c>
       <c r="I26" s="49"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
